--- a/Selenium/Bugs/data/genre/보사노바.xlsx
+++ b/Selenium/Bugs/data/genre/보사노바.xlsx
@@ -64,7 +64,7 @@
     <t>Água De Beber</t>
   </si>
   <si>
-    <t>My Heart Stood Still</t>
+    <t xml:space="preserve">My Heart Stood Still </t>
   </si>
   <si>
     <t>봄이 와 (feat. 롤러코스터)</t>
@@ -301,13 +301,13 @@
     <t>소녀</t>
   </si>
   <si>
-    <t>Amor Em Paz (Love In Peace)</t>
+    <t xml:space="preserve">Amor Em Paz (Love In Peace) </t>
   </si>
   <si>
     <t>Onde Anda Você</t>
   </si>
   <si>
-    <t>Garota de Ipanema</t>
+    <t xml:space="preserve">Garota de Ipanema </t>
   </si>
   <si>
     <t>Águas De Março</t>
@@ -337,13 +337,13 @@
     <t>Mas Que Nada</t>
   </si>
   <si>
-    <t>Ó Barquinho</t>
-  </si>
-  <si>
-    <t>Oba-Là-Là</t>
-  </si>
-  <si>
-    <t>O bonde de são januário</t>
+    <t xml:space="preserve">Ó Barquinho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oba-Là-Là </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O bonde de são januário </t>
   </si>
   <si>
     <t>Sweet Thing</t>
@@ -361,10 +361,10 @@
     <t>Desafinado</t>
   </si>
   <si>
-    <t>Chove Lá Fora</t>
-  </si>
-  <si>
-    <t>O Amor e a Rosa</t>
+    <t xml:space="preserve">Chove Lá Fora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Amor e a Rosa </t>
   </si>
   <si>
     <t>Chega De Saudade (Bonus Track)</t>
@@ -376,7 +376,7 @@
     <t>Tristeza</t>
   </si>
   <si>
-    <t>Lullaby of Birdland</t>
+    <t xml:space="preserve">Lullaby of Birdland </t>
   </si>
   <si>
     <t>Call Me</t>
@@ -403,7 +403,7 @@
     <t>New Slang</t>
   </si>
   <si>
-    <t>O Barquinho</t>
+    <t xml:space="preserve">O Barquinho </t>
   </si>
   <si>
     <t>Oye Como Va</t>
